--- a/Documentation/TODO List Spring.xlsx
+++ b/Documentation/TODO List Spring.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Air compressor ordered</t>
+  </si>
+  <si>
+    <t>Update sections</t>
+  </si>
+  <si>
+    <t>Add intro to environmental report</t>
+  </si>
+  <si>
+    <t>Call Bimba/Numatics</t>
+  </si>
+  <si>
+    <t>Get component lead time and feedback on design specs</t>
   </si>
 </sst>
 </file>
@@ -499,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,55 +656,73 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
+      <c r="A21" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
